--- a/tec/real.xlsx
+++ b/tec/real.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tec\tec\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4AC906-9553-442E-BD6C-4BAC603A638F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>зольость</t>
   </si>
@@ -88,9 +105,6 @@
     <t>уголь 1</t>
   </si>
   <si>
-    <t>руб./т</t>
-  </si>
-  <si>
     <t>уголь 2</t>
   </si>
   <si>
@@ -145,9 +159,6 @@
     <t>торф 1</t>
   </si>
   <si>
-    <t>влажность можно понизить примерно до 40% (+ к затратам)</t>
-  </si>
-  <si>
     <t>торф 2</t>
   </si>
   <si>
@@ -251,62 +262,80 @@
   </si>
   <si>
     <t>дерево 17</t>
+  </si>
+  <si>
+    <t>сера</t>
+  </si>
+  <si>
+    <t>тепл</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -496,20 +525,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -520,78 +554,114 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C2" s="1">
         <v>0.27</v>
       </c>
       <c r="D2" s="1">
-        <v>1450.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1450</v>
+      </c>
+      <c r="E2">
+        <v>39280</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.9197576479978171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C3" s="1">
         <v>0.13</v>
       </c>
       <c r="D3" s="1">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1200</v>
+      </c>
+      <c r="E3">
+        <v>39028</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C4" s="1">
         <v>0.12</v>
       </c>
       <c r="D4" s="1">
-        <v>1375.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1375</v>
+      </c>
+      <c r="E4">
+        <v>40664</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C5" s="1">
         <v>0.01</v>
       </c>
       <c r="D5" s="2">
-        <v>1400.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1400</v>
+      </c>
+      <c r="E5">
+        <v>39926</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C6" s="1">
         <v>0.02</v>
       </c>
       <c r="D6" s="1">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1100</v>
+      </c>
+      <c r="E6">
+        <v>39453</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -602,10 +672,16 @@
         <v>0.01</v>
       </c>
       <c r="D7" s="1">
-        <v>1150.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1150</v>
+      </c>
+      <c r="E7">
+        <v>39522</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -616,10 +692,16 @@
         <v>0.02</v>
       </c>
       <c r="D8" s="2">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1200</v>
+      </c>
+      <c r="E8">
+        <v>40992</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -630,10 +712,16 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="1">
-        <v>1320.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1320</v>
+      </c>
+      <c r="E9">
+        <v>40345</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -644,66 +732,96 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="1">
-        <v>1020.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1020</v>
+      </c>
+      <c r="E10">
+        <v>40690</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C11" s="1">
         <v>0.06</v>
       </c>
       <c r="D11" s="1">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1300</v>
+      </c>
+      <c r="E11">
+        <v>39650</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C12" s="1">
         <v>0.05</v>
       </c>
       <c r="D12" s="1">
-        <v>1240.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1240</v>
+      </c>
+      <c r="E12">
+        <v>40262</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C13" s="1">
         <v>0.05</v>
       </c>
       <c r="D13" s="1">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1500</v>
+      </c>
+      <c r="E13">
+        <v>40230</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>1475.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1475</v>
+      </c>
+      <c r="E14">
+        <v>40076</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -714,10 +832,16 @@
         <v>0.19</v>
       </c>
       <c r="D15" s="1">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1200</v>
+      </c>
+      <c r="E15">
+        <v>40032</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -728,24 +852,36 @@
         <v>0.12</v>
       </c>
       <c r="D16" s="2">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>39847</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1325.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1325</v>
+      </c>
+      <c r="E17">
+        <v>39879</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -753,13 +889,19 @@
         <v>0.08</v>
       </c>
       <c r="C18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1100</v>
+      </c>
+      <c r="E18">
+        <v>39404</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -770,10 +912,16 @@
         <v>0.25</v>
       </c>
       <c r="D19" s="1">
-        <v>1320.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1320</v>
+      </c>
+      <c r="E19">
+        <v>40373</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -784,10 +932,16 @@
         <v>0.39</v>
       </c>
       <c r="D20" s="1">
-        <v>1310.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1310</v>
+      </c>
+      <c r="E20">
+        <v>39354</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -798,43 +952,58 @@
         <v>0.13</v>
       </c>
       <c r="D21" s="1">
-        <v>1120.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1120</v>
+      </c>
+      <c r="E21">
+        <v>39353</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C22" s="1">
         <v>0.12</v>
       </c>
       <c r="D22" s="1">
-        <v>1250.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1250</v>
+      </c>
+      <c r="E22">
+        <v>40373</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1">
-        <v>1600.0</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E23">
+        <v>23002</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>7.8</v>
@@ -843,49 +1012,58 @@
         <v>16.8</v>
       </c>
       <c r="D24" s="1">
-        <v>1475.0</v>
-      </c>
-      <c r="E24" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E24">
+        <v>21483</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
         <v>25</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1">
-        <v>25.0</v>
       </c>
       <c r="C25" s="1">
         <v>16.8</v>
       </c>
       <c r="D25" s="1">
-        <v>1050.0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1050</v>
+      </c>
+      <c r="E25">
+        <v>20622</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E26">
+        <v>24014</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B26" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1600.0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>8.5</v>
@@ -894,32 +1072,38 @@
         <v>16.2</v>
       </c>
       <c r="D27" s="1">
-        <v>1475.0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1475</v>
+      </c>
+      <c r="E27">
+        <v>21674</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1550</v>
+      </c>
+      <c r="E28">
+        <v>23152</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B28" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1550.0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>8.6</v>
@@ -928,32 +1112,38 @@
         <v>16.3</v>
       </c>
       <c r="D29" s="1">
-        <v>1475.0</v>
-      </c>
-      <c r="E29" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E29">
+        <v>24374</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
         <v>25</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1">
-        <v>25.0</v>
       </c>
       <c r="C30" s="1">
         <v>16.3</v>
       </c>
       <c r="D30" s="1">
-        <v>1050.0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1050</v>
+      </c>
+      <c r="E30">
+        <v>20928</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>7.6</v>
@@ -962,32 +1152,38 @@
         <v>16.3</v>
       </c>
       <c r="D31" s="1">
-        <v>1475.0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1475</v>
+      </c>
+      <c r="E31">
+        <v>22927</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <v>13.7</v>
       </c>
       <c r="D32" s="1">
-        <v>1100.0</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1100</v>
+      </c>
+      <c r="E32">
+        <v>21954</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <v>14.8</v>
@@ -996,100 +1192,118 @@
         <v>13.6</v>
       </c>
       <c r="D33" s="1">
-        <v>700.0</v>
-      </c>
-      <c r="E33" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E33">
+        <v>20960</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1150</v>
+      </c>
+      <c r="E34">
+        <v>23900</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E35">
+        <v>24997</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1150.0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1100.0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>700</v>
+      </c>
+      <c r="E36">
+        <v>23694</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>700.0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E37">
+        <v>22034</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>9.8</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2900.0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2900</v>
+      </c>
+      <c r="E38">
+        <v>22059</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B38" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2900.0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B39" s="1">
         <v>12.5</v>
@@ -1098,32 +1312,38 @@
         <v>10.5</v>
       </c>
       <c r="D39" s="1">
-        <v>1800.0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1800</v>
+      </c>
+      <c r="E39">
+        <v>21069</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E40">
+        <v>24194</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B40" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1100.0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>14.3</v>
@@ -1132,43 +1352,58 @@
         <v>68.5</v>
       </c>
       <c r="D41" s="2">
-        <v>2300.0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>2300</v>
+      </c>
+      <c r="E41">
+        <v>17024</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>11.8</v>
       </c>
       <c r="C42" s="2">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="D42" s="2">
-        <v>2275.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2275</v>
+      </c>
+      <c r="E42">
+        <v>16917</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>12.5</v>
       </c>
       <c r="C43" s="2">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2100</v>
+      </c>
+      <c r="E43">
+        <v>19135</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
         <v>10.7</v>
@@ -1177,12 +1412,18 @@
         <v>62.5</v>
       </c>
       <c r="D44" s="2">
-        <v>1980.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>1980</v>
+      </c>
+      <c r="E44">
+        <v>18862</v>
+      </c>
+      <c r="F44" s="4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2">
         <v>47.9</v>
@@ -1191,26 +1432,38 @@
         <v>66.2</v>
       </c>
       <c r="D45" s="2">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1800</v>
+      </c>
+      <c r="E45">
+        <v>19596</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2">
         <v>23.2</v>
       </c>
       <c r="C46" s="2">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D46" s="2">
-        <v>1920.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1920</v>
+      </c>
+      <c r="E46">
+        <v>19067</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
         <v>23.2</v>
@@ -1219,12 +1472,18 @@
         <v>67.5</v>
       </c>
       <c r="D47" s="2">
-        <v>1950.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1950</v>
+      </c>
+      <c r="E47">
+        <v>17709</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
         <v>14.3</v>
@@ -1233,26 +1492,38 @@
         <v>70.5</v>
       </c>
       <c r="D48" s="2">
-        <v>1820.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1820</v>
+      </c>
+      <c r="E48">
+        <v>18176</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
         <v>26.9</v>
       </c>
       <c r="C49" s="2">
-        <v>69.9</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="D49" s="2">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1850</v>
+      </c>
+      <c r="E49">
+        <v>20000</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
         <v>25.7</v>
@@ -1261,12 +1532,18 @@
         <v>69.5</v>
       </c>
       <c r="D50" s="2">
-        <v>1720.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1720</v>
+      </c>
+      <c r="E50">
+        <v>17292</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2">
         <v>10.9</v>
@@ -1275,12 +1552,18 @@
         <v>67.2</v>
       </c>
       <c r="D51" s="2">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>2100</v>
+      </c>
+      <c r="E51">
+        <v>17208</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2">
         <v>11.5</v>
@@ -1289,40 +1572,58 @@
         <v>70.7</v>
       </c>
       <c r="D52" s="2">
-        <v>2200.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>2200</v>
+      </c>
+      <c r="E52">
+        <v>19339</v>
+      </c>
+      <c r="F52" s="4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2">
         <v>10.5</v>
       </c>
       <c r="C53" s="2">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="D53" s="2">
-        <v>2050.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2050</v>
+      </c>
+      <c r="E53">
+        <v>19718</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2">
         <v>16.8</v>
       </c>
       <c r="C54" s="2">
-        <v>71.6</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="D54" s="2">
-        <v>2075.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>2075</v>
+      </c>
+      <c r="E54">
+        <v>18837</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2">
         <v>56.8</v>
@@ -1331,68 +1632,98 @@
         <v>49.4</v>
       </c>
       <c r="D55" s="2">
-        <v>1650.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1650</v>
+      </c>
+      <c r="E55">
+        <v>16710</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2">
+        <v>50</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1780</v>
+      </c>
+      <c r="E56">
+        <v>17405</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2">
+        <v>52</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1750</v>
+      </c>
+      <c r="E57">
+        <v>18622</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="C56" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1780.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="B58" s="2">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2">
+        <v>48</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1875</v>
+      </c>
+      <c r="E58">
+        <v>18323</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>52.0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1750.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="B59" s="2">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1850</v>
+      </c>
+      <c r="E59">
+        <v>17924</v>
+      </c>
+      <c r="F59" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B58" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="C58" s="2">
-        <v>48.0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1875.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="C59" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="B60" s="2">
         <v>1.08</v>
@@ -1401,12 +1732,18 @@
         <v>7.88</v>
       </c>
       <c r="D60" s="1">
-        <v>2400.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2400</v>
+      </c>
+      <c r="E60">
+        <v>8672</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
         <v>1.47</v>
@@ -1415,12 +1752,18 @@
         <v>5.39</v>
       </c>
       <c r="D61" s="2">
-        <v>2350.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2350</v>
+      </c>
+      <c r="E61">
+        <v>9615</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2">
         <v>6.95</v>
@@ -1429,12 +1772,18 @@
         <v>8.77</v>
       </c>
       <c r="D62" s="1">
-        <v>2200.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2200</v>
+      </c>
+      <c r="E62">
+        <v>10753</v>
+      </c>
+      <c r="F62" s="4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
         <v>5.8</v>
@@ -1443,12 +1792,18 @@
         <v>7.83</v>
       </c>
       <c r="D63" s="1">
-        <v>2150.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2150</v>
+      </c>
+      <c r="E63">
+        <v>9775</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
         <v>15.11</v>
@@ -1457,178 +1812,256 @@
         <v>4.57</v>
       </c>
       <c r="D64" s="1">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>2300</v>
+      </c>
+      <c r="E64">
+        <v>8557</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>0.27</v>
       </c>
       <c r="C65" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>2100</v>
+      </c>
+      <c r="E65">
+        <v>9390</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>0.35</v>
       </c>
       <c r="C66" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D66" s="1">
-        <v>2050.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>2050</v>
+      </c>
+      <c r="E66">
+        <v>10890</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
         <v>0.46</v>
       </c>
       <c r="C67" s="2">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="D67" s="1">
-        <v>1900.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>1900</v>
+      </c>
+      <c r="E67">
+        <v>9358</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
         <v>0.22</v>
       </c>
       <c r="C68" s="2">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="D68" s="2">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>2100</v>
+      </c>
+      <c r="E68">
+        <v>10673</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
         <v>0.31</v>
       </c>
       <c r="C69" s="2">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="D69" s="1">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>2300</v>
+      </c>
+      <c r="E69">
+        <v>9722</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C70" s="2">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>2175.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>2175</v>
+      </c>
+      <c r="E70">
+        <v>9725</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
         <v>0.52</v>
       </c>
       <c r="C71" s="2">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="D71" s="1">
-        <v>2350.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>2350</v>
+      </c>
+      <c r="E71">
+        <v>10853</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
         <v>0.45</v>
       </c>
       <c r="C72" s="2">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="D72" s="1">
-        <v>2250.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>2250</v>
+      </c>
+      <c r="E72">
+        <v>10356</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C73" s="2">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="D73" s="1">
-        <v>2200.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>2200</v>
+      </c>
+      <c r="E73">
+        <v>9894</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2">
         <v>1.63</v>
       </c>
       <c r="C74" s="2">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="D74" s="1">
-        <v>1875.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>1875</v>
+      </c>
+      <c r="E74">
+        <v>10230</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
         <v>0.5</v>
       </c>
       <c r="C75" s="2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="D75" s="1">
-        <v>2200.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>2200</v>
+      </c>
+      <c r="E75">
+        <v>8817</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
         <v>0.45</v>
       </c>
       <c r="C76" s="2">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D76" s="1">
-        <v>2310.0</v>
+        <v>2310</v>
+      </c>
+      <c r="E76">
+        <v>9164</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>